--- a/misc/housing/housing_feature_info.xlsx
+++ b/misc/housing/housing_feature_info.xlsx
@@ -460,27 +460,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.68594309569185</v>
+        <v>67755.10993722807</v>
       </c>
       <c r="C2" t="n">
-        <v>3.547658372807503</v>
+        <v>6585.627529298183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.42855593169086</v>
+        <v>43261.06665301397</v>
       </c>
       <c r="C3" t="n">
-        <v>3.538529208787653</v>
+        <v>5825.464085737522</v>
       </c>
     </row>
     <row r="4">
@@ -490,88 +490,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.528355334469029</v>
+        <v>15830.6929194741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07321948518118787</v>
+        <v>829.3636677799087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.418187052742075</v>
+        <v>136.2089780628681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1489173331654572</v>
+        <v>9.282654805999261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2667199108398305</v>
+        <v>70.39816739466042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01846203511574736</v>
+        <v>63.12708823050743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2121124070881632</v>
+        <v>62.60063090212643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02045683110794718</v>
+        <v>67.76356090111369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1006759653987371</v>
+        <v>15.43664624076337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0119957991621725</v>
+        <v>43.49998691151036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08375829262397813</v>
+        <v>4.101836276613176</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005530475899135257</v>
+        <v>12.79691827461691</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07118229595165664</v>
+        <v>-2.509808279387653</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01267226846215323</v>
+        <v>2.326531643258642</v>
       </c>
     </row>
     <row r="11">
@@ -581,36 +581,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04282394638711371</v>
+        <v>-61.00055883955211</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008693748439794641</v>
+        <v>34.75636445408826</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01625255886486496</v>
+        <v>-75.73340855874122</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002732646513538466</v>
+        <v>70.31717498184102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01474830315056335</v>
+        <v>-77.17576672323048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003223797516684225</v>
+        <v>177.7925286633067</v>
       </c>
     </row>
   </sheetData>
@@ -652,157 +652,157 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3225755052257021</v>
+        <v>0.01914788649848504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01665967674995452</v>
+        <v>0.002172022450896206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2607398355437637</v>
+        <v>0.01350575788377175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01447765622002322</v>
+        <v>0.007379443800092222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03724587214834692</v>
+        <v>0.01037931409059896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005488287208606454</v>
+        <v>0.0008391514453547171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0302799100668534</v>
+        <v>0.007301860277914773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004098248081806525</v>
+        <v>0.001483530116066174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02602118082718909</v>
+        <v>0.001530342038006882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009522653065353518</v>
+        <v>0.003339313384419982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02257437928104202</v>
+        <v>0.001315973501302503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008960573897158661</v>
+        <v>0.001477270899923534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0189744797168508</v>
+        <v>1.660967613981157e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003631003306473912</v>
+        <v>3.321935227962314e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01495800705644206</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004674848675271117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01363062986487673</v>
+        <v>-0.001426436648009588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00209774884370136</v>
+        <v>0.0005078442193129963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008643525488004599</v>
+        <v>-0.007871808775599121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004993623515201488</v>
+        <v>0.006397643861755054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001275627326923878</v>
+        <v>-0.01480505154217826</v>
       </c>
       <c r="C12" t="n">
-        <v>4.185493216285101e-05</v>
+        <v>0.003356773956036957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0007058397438205021</v>
+        <v>-0.03293518849259014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002188519535547988</v>
+        <v>0.004205126138861062</v>
       </c>
     </row>
   </sheetData>
@@ -844,157 +844,157 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1715543738820444</v>
+        <v>57.93337411391035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01134162817975436</v>
+        <v>5.960533232545037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1504952630593978</v>
+        <v>-0.0281106148534036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0142837089245951</v>
+        <v>0.00183944249541807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1293018732542693</v>
+        <v>-0.2291060705364089</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01110826556545172</v>
+        <v>0.1822939775697575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06616922141589084</v>
+        <v>-0.3707230705266739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01113144654522585</v>
+        <v>3.086658110981423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04144011788516819</v>
+        <v>-0.468663340360581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004673453382352087</v>
+        <v>0.382130139063335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03130695023391574</v>
+        <v>-0.9585396583160672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01318434455907735</v>
+        <v>0.2784834388008868</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01505954782236143</v>
+        <v>-1.896227521842002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002660804167253955</v>
+        <v>0.6219260210649855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003679611635478852</v>
+        <v>-11.71177230716676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009917341817184883</v>
+        <v>0.9466176942423992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.528475842387025e-05</v>
+        <v>-48.35597222726415</v>
       </c>
       <c r="C10" t="n">
-        <v>4.337976986462496e-05</v>
+        <v>5.3492913365567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.192711838764349e-05</v>
+        <v>-81.9800038795905</v>
       </c>
       <c r="C11" t="n">
-        <v>1.466546414420967e-05</v>
+        <v>3.979854553391653</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.816290944400833e-05</v>
+        <v>-235.4171784870921</v>
       </c>
       <c r="C12" t="n">
-        <v>3.383430518846313e-05</v>
+        <v>9.229763663469296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.983099668698365e-05</v>
+        <v>-256.4893070819343</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001828950550560712</v>
+        <v>11.03493309957789</v>
       </c>
     </row>
   </sheetData>
@@ -1036,118 +1036,118 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3738765609764948</v>
+        <v>0.425656659580013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02162504470573864</v>
+        <v>0.03460103429184129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2781794423949863</v>
+        <v>0.4130806191682181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01385126668179784</v>
+        <v>0.06547704582888028</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1848088245762532</v>
+        <v>0.3120025316588272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009989307263998914</v>
+        <v>0.05322608854322328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1484978147779664</v>
+        <v>0.1622273328557044</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01013914234481742</v>
+        <v>0.01056345426060904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09152116036853812</v>
+        <v>0.04582453020936974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002919534871839309</v>
+        <v>0.01173351828660557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08857433787072481</v>
+        <v>0.02980463461966916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007646305407122597</v>
+        <v>0.007218925505183446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08730918601428224</v>
+        <v>0.0007092539524617969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004707519845380129</v>
+        <v>0.00164053914382651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06108062883954013</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003200952811049333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04065241643644975</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003182403869854655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1157,36 +1157,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03590000273262785</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001557318822095073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00301303266362869</v>
+        <v>-0.02205570019047354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003498497810164647</v>
+        <v>0.01534093116441737</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.02540253977711861</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01960265785119763</v>
       </c>
     </row>
   </sheetData>
@@ -1228,157 +1228,157 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2520190110362456</v>
+        <v>0.2321775859359667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01501787241293414</v>
+        <v>0.06390225421392057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1531001916264501</v>
+        <v>0.2268388115259635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01163131393077842</v>
+        <v>0.03153171318251697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1328007516392619</v>
+        <v>0.1316960835581719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01056693888434328</v>
+        <v>0.01952705728908861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06815502582277719</v>
+        <v>0.04732153486811361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009141677640590226</v>
+        <v>0.02421835596858743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05240173890510751</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006683812024898306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04854757270348679</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002775986933324843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02775720808684558</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001814266727026673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02293683294208655</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003513963321773813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01744002514698546</v>
+        <v>-0.01916113998238074</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001551657060551981</v>
+        <v>0.01145586982356775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002085479071655994</v>
+        <v>-0.03594260667973947</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005907640200456146</v>
+        <v>0.01018284653668898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.04131414818409249</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.01754869719133724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.06239055970819831</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01464808277542066</v>
       </c>
     </row>
   </sheetData>
@@ -1420,157 +1420,157 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3550435228305696</v>
+        <v>0.005456035773996337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03367890091410294</v>
+        <v>0.008219407967185982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2070988779417385</v>
+        <v>0.000972830435090355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01518017895588311</v>
+        <v>0.006350235899329861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01983597103855306</v>
+        <v>0.0004615048445069547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003811052278914664</v>
+        <v>0.001409832983329938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01071506889885745</v>
+        <v>-5.123672521341049e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003237370626812308</v>
+        <v>1.028609278392733e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002760086675590445</v>
+        <v>-0.001257121757073776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003597429935061837</v>
+        <v>0.003761903464868745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001694182042065084</v>
+        <v>-0.002183523881799499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001091581895732259</v>
+        <v>0.002938459148310781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007646362937113738</v>
+        <v>-0.02008014542261183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001237737964412999</v>
+        <v>0.01926523909363137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004338064328465174</v>
+        <v>-0.04703717703343448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001360060688430099</v>
+        <v>0.003670901003530233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>-0.05731880094367767</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.007064769973646699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>-0.1258926100592255</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.008154204759094777</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>-0.1261745027946785</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.03815650035522476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.559393928555426e-05</v>
+        <v>-0.1333134038443707</v>
       </c>
       <c r="C13" t="n">
-        <v>6.786086662999959e-05</v>
+        <v>0.02440575590958999</v>
       </c>
     </row>
   </sheetData>
@@ -1612,14 +1612,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1776475699459643</v>
+        <v>0.007250122454850549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01129256808085143</v>
+        <v>0.001670788838701229</v>
       </c>
     </row>
     <row r="3">
@@ -1629,23 +1629,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1726403290628118</v>
+        <v>0.006233948449155102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008763154219421553</v>
+        <v>0.0008851076106442664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08241693558011584</v>
+        <v>0.003906327366523232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007705042201385788</v>
+        <v>0.001497029477093239</v>
       </c>
     </row>
     <row r="5">
@@ -1655,114 +1655,114 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04723501866934506</v>
+        <v>0.003619988228748961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009073373149825622</v>
+        <v>0.001019337869048467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04565970647600302</v>
+        <v>0.0006562745151698745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006279394621429455</v>
+        <v>0.0004641032433140799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02986195883565222</v>
+        <v>0.0004567229677268081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002489306059404453</v>
+        <v>0.0007514655170052605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02913489911849292</v>
+        <v>0.0001503576099719073</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002966689285212288</v>
+        <v>0.0001124937357048963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01393417404847188</v>
+        <v>4.157687954298162e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002959921266230065</v>
+        <v>5.448701086537222e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01204549253722733</v>
+        <v>1.653001330601533e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003527037688450242</v>
+        <v>1.098612357695792e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008829512056715427</v>
+        <v>-3.03191404348091e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002080322281768787</v>
+        <v>0.0002869721286932487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.005454571468825597</v>
+        <v>-0.0005596661944410553</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000821145749904276</v>
+        <v>0.001444589027826579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005286541990355031</v>
+        <v>-0.01728425285675226</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001403003907207556</v>
+        <v>0.004994381227968889</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1826,10 @@
         <v>2.656634632774538</v>
       </c>
       <c r="C2" t="n">
-        <v>1.461863206179689</v>
+        <v>1.544421717023353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.094</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-0.020349890319776357, 5.42990094592357]</t>
+          <t>[-0.4564361494213066, 5.792062201414955]</t>
         </is>
       </c>
     </row>
@@ -1852,10 +1852,10 @@
         <v>-0.007304736864045405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3950865990628163</v>
+        <v>0.3891732039298657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.986</v>
+        <v>0.992</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.8432609587893044, 0.7432961773364195]</t>
+          <t>[-0.7753360262476652, 0.7627512190636426]</t>
         </is>
       </c>
     </row>
@@ -1878,10 +1878,10 @@
         <v>0.226705731640346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5772432464932723</v>
+        <v>0.5425205455871679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.706</v>
+        <v>0.708</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.816060752670236, 1.3849156934832119]</t>
+          <t>[-0.755611253327032, 1.2861015085581704]</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>-0.5283428645945856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5643410205847602</v>
+        <v>0.5899332314831082</v>
       </c>
       <c r="D5" t="n">
         <v>0.334</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1.5668142321404384, 0.5949669418259976]</t>
+          <t>[-1.618401886487736, 0.6883146855985145]</t>
         </is>
       </c>
     </row>
@@ -1930,10 +1930,10 @@
         <v>-0.1424874637821497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4058687983791611</v>
+        <v>0.4191992903726603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.698</v>
+        <v>0.716</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.9220323869832583, 0.6927188411106338]</t>
+          <t>[-0.9449003024563061, 0.6749149016616901]</t>
         </is>
       </c>
     </row>
@@ -1956,10 +1956,10 @@
         <v>-0.1189624414578215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4222735399941098</v>
+        <v>0.4288897016400642</v>
       </c>
       <c r="D7" t="n">
-        <v>0.762</v>
+        <v>0.804</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.9608816851248384, 0.7219774498181506]</t>
+          <t>[-1.0024380272678148, 0.7217601494855292]</t>
         </is>
       </c>
     </row>
@@ -2112,10 +2112,10 @@
         <v>0.6828301089395005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.551859697936166</v>
+        <v>0.5511932688032536</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14</v>
+        <v>0.116</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.0, 1.9682333692550555]</t>
+          <t>[-0.020132685133808816, 1.8643070772777819]</t>
         </is>
       </c>
     </row>
@@ -2138,10 +2138,10 @@
         <v>-0.008891045867793001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2393344352789351</v>
+        <v>0.2332180076451266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.918</v>
+        <v>0.986</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.44992344798063677, 0.46748905139111474]</t>
+          <t>[-0.4214042642518702, 0.5168253223655759]</t>
         </is>
       </c>
     </row>
@@ -2164,10 +2164,10 @@
         <v>0.845588617962582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7981621071148199</v>
+        <v>0.815659438792821</v>
       </c>
       <c r="D15" t="n">
-        <v>0.142</v>
+        <v>0.148</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 2.479266174039177]</t>
+          <t>[0.0, 2.5496134031066644]</t>
         </is>
       </c>
     </row>
@@ -2190,10 +2190,10 @@
         <v>0.2789076254158366</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2015212460648714</v>
+        <v>0.2020242028099362</v>
       </c>
       <c r="D16" t="n">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.0, 0.7391363406596918]</t>
+          <t>[0.0, 0.7171409344397852]</t>
         </is>
       </c>
     </row>
@@ -2216,10 +2216,10 @@
         <v>0.445237698024121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4035804819002591</v>
+        <v>0.4196260890345305</v>
       </c>
       <c r="D17" t="n">
-        <v>0.146</v>
+        <v>0.152</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 1.3287065865325918]</t>
+          <t>[0.0, 1.3886379193029224]</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
         <v>3.421256075787255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9042012557551554</v>
+        <v>0.9980553945503653</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1.5226438561666704, 5.067928149885613]</t>
+          <t>[1.462477768980686, 5.262041347702955]</t>
         </is>
       </c>
     </row>
@@ -2398,19 +2398,19 @@
         <v>-1.772784455500506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6748384908360002</v>
+        <v>0.6770099045916615</v>
       </c>
       <c r="D24" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-3.1232824921830353, -0.5624076112912867]</t>
+          <t>[-3.007692376205913, -0.4181730986133249]</t>
         </is>
       </c>
     </row>
@@ -2424,19 +2424,19 @@
         <v>-3.295331709883806</v>
       </c>
       <c r="C25" t="n">
-        <v>1.304549422709773</v>
+        <v>1.325669925079384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-5.953590612714928, -0.8126736965038939]</t>
+          <t>[-5.7649906126828245, -0.6337473432094788]</t>
         </is>
       </c>
     </row>
@@ -2580,10 +2580,10 @@
         <v>0.5403382810598699</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5943852870808638</v>
+        <v>0.6130857228646857</v>
       </c>
       <c r="D31" t="n">
-        <v>0.37</v>
+        <v>0.382</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.6581584705105847, 1.6780194068329535]</t>
+          <t>[-0.5854637770020035, 1.8580668100690532]</t>
         </is>
       </c>
     </row>
@@ -2606,10 +2606,10 @@
         <v>-1.800793048713077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7449423011907715</v>
+        <v>0.7563246350007</v>
       </c>
       <c r="D32" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-3.298584922157334, -0.40424284507375186]</t>
+          <t>[-3.197839672329523, -0.4792585720084501]</t>
         </is>
       </c>
     </row>
@@ -2632,10 +2632,10 @@
         <v>0.0893640055978627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9728538879639895</v>
+        <v>0.9980411996827439</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-1.843605409851712, 1.7588476284966665]</t>
+          <t>[-1.9664996320630035, 2.008529718296263]</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
         <v>-3.414820926958793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9752693913915229</v>
+        <v>0.9248778903585332</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-5.278078611206728, -1.578848649048863]</t>
+          <t>[-5.226158040232855, -1.678895748028335]</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
         <v>-6.584941914784161</v>
       </c>
       <c r="C39" t="n">
-        <v>1.169746605237219</v>
+        <v>1.024863760466941</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-8.912986249434642, -4.370934546494661]</t>
+          <t>[-8.605459576591715, -4.593459391260007]</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
         <v>4.765031170484354</v>
       </c>
       <c r="C40" t="n">
-        <v>1.131323446480692</v>
+        <v>1.041776975603151</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[2.5552273447954286, 6.84094274715524]</t>
+          <t>[2.7573075034947863, 6.725820003852739]</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
         <v>-7.252521818378498</v>
       </c>
       <c r="C41" t="n">
-        <v>1.192874064604249</v>
+        <v>1.165834823893171</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-9.568283735678758, -4.9016030854545125]</t>
+          <t>[-9.49152234496447, -4.828637851555698]</t>
         </is>
       </c>
     </row>
@@ -2866,10 +2866,10 @@
         <v>1.798474207776606</v>
       </c>
       <c r="C42" t="n">
-        <v>1.118268240125016</v>
+        <v>1.114592134297336</v>
       </c>
       <c r="D42" t="n">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.46234876876750536, 3.99560841451789]</t>
+          <t>[-0.3070192267974259, 3.863262132280031]</t>
         </is>
       </c>
     </row>
@@ -3152,10 +3152,10 @@
         <v>0.013866367414485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03186961907287206</v>
+        <v>0.03254632962303766</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7</v>
+        <v>0.658</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.047081891380573046, 0.07158834694819381]</t>
+          <t>[-0.05173832225043615, 0.08094340731457195]</t>
         </is>
       </c>
     </row>
